--- a/AfDD_2020_Annex_Table_Tab09.xlsx
+++ b/AfDD_2020_Annex_Table_Tab09.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Markley_S\BACKUP\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Tab09" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="172">
   <si>
     <t>Table 9: Labour force characteristics</t>
   </si>
@@ -523,7 +523,97 @@
     <t>Source: International Labour Organization - ILOSTAT (retrieved 25/10/2020).</t>
   </si>
   <si>
-    <t>If you would like to explore these data further, look up the historic time series for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD2020</t>
+    <t>If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD2020</t>
+  </si>
+  <si>
+    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details.</t>
+  </si>
+  <si>
+    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To download all data for the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Africa's Development Dynamics</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> statistical annex in compressed csv format, including historic data back to 2000, click here.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To download all data for the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Africa's Development Dynamics</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> statistical annex in uncompressed Excel format, including historic data back to 2000, click here to download the first of two data files.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To download all data for the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Africa's Development Dynamics</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> statistical annex in uncompressed Excel format, including historic data back to 2000, click here to download the second of two data files.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -534,7 +624,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -657,6 +747,15 @@
       <i/>
       <u/>
       <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -835,15 +934,18 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -859,7 +961,9 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -887,7 +991,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -897,7 +1003,9 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -907,7 +1015,9 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -941,13 +1051,19 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1230,21 +1346,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet9">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J105"/>
+  <dimension ref="A1:J111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" style="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="12.453125" style="42" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.26953125" style="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="12.453125" style="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1258,3119 +1375,3152 @@
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" ht="53" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="12">
         <v>77.492999999999995</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="12">
         <v>76.135999999999996</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="13">
         <v>78.912999999999997</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="12">
         <v>65.995263901612105</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="12">
         <v>29.7433733659037</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="12">
         <v>4.2613627324841898</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="12">
         <v>57.166259210791097</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="13">
         <v>8.8290046908209803</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="12">
         <v>70.819999999999993</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="12">
         <v>65.375</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="13">
         <v>76.897999999999996</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="12">
         <v>25.911941005926298</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="12">
         <v>71.489478191128995</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="12">
         <v>2.5986939224294399</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="12">
         <v>21.9920115019892</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="13">
         <v>3.9199295039371198</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="15">
         <v>52.505000000000003</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="15">
         <v>48.527000000000001</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="16">
         <v>56.78</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="17">
         <v>32.6375666086766</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="17">
         <v>65.175134587197405</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="17">
         <v>2.18729880412597</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="17">
         <v>30.0783550910262</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="16">
         <v>2.5592115176504402</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="15">
         <v>67.884</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="15">
         <v>60.158999999999999</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="16">
         <v>75.938999999999993</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="17">
         <v>16.310163652370399</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="17">
         <v>83.248713279385498</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="17">
         <v>0.44112306824410003</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="17">
         <v>13.0380542345537</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="16">
         <v>3.2721094178167101</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="15">
         <v>76.718000000000004</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="15">
         <v>72.593000000000004</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="16">
         <v>81.102000000000004</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="17">
         <v>59.189923502687499</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="17">
         <v>39.671682088136599</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="17">
         <v>1.1384075282486401</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="17">
         <v>52.702489606414701</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="16">
         <v>6.4874338962727398</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="15">
         <v>78.096999999999994</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="15">
         <v>77.281000000000006</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="16">
         <v>79.004999999999995</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="17">
         <v>83.146204723462006</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="17">
         <v>14.3863187428166</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="17">
         <v>2.4674687001392499</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="17">
         <v>62.188442771609097</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="16">
         <v>20.957761951852898</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="15">
         <v>59.533999999999999</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="15">
         <v>56.088999999999999</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="16">
         <v>63.331000000000003</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="17">
         <v>31.020293424716201</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="17">
         <v>62.678839151852699</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="17">
         <v>6.3008674234311401</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="17">
         <v>26.576890126365399</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="16">
         <v>4.4434032983508303</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="15">
         <v>56.017000000000003</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="15">
         <v>49.61</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="16">
         <v>62.749000000000002</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="17">
         <v>10.298387036051899</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="17">
         <v>84.448445736767198</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="17">
         <v>5.2531612513369499</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="17">
         <v>9.7850620394192998</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="16">
         <v>0.51332499663261</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="12">
         <v>74.614999999999995</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="12">
         <v>70.37</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="13">
         <v>79.075999999999993</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="12">
         <v>78.134445206268296</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="12">
         <v>21.563079391784999</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="12">
         <v>0.30247540194679001</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="12">
         <v>44.7182806950375</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="13">
         <v>33.416164511230697</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="15">
         <v>83.099000000000004</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="15">
         <v>78.105999999999995</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="16">
         <v>88.992999999999995</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="17">
         <v>64.738759291592601</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="17">
         <v>34.791097408562301</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="17">
         <v>0.47015824590635003</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="17">
         <v>55.248264538108401</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="16">
         <v>9.4904947534841497</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="21">
-        <v>70.089665690443695</v>
-      </c>
-      <c r="D13" s="21">
-        <v>66.138381605577194</v>
-      </c>
-      <c r="E13" s="22">
-        <v>74.313722135942697</v>
-      </c>
-      <c r="F13" s="21">
-        <v>49.365998401005101</v>
-      </c>
-      <c r="G13" s="21">
-        <v>52.7764107389266</v>
-      </c>
-      <c r="H13" s="21">
-        <v>3.7858488131858001</v>
-      </c>
-      <c r="I13" s="21">
-        <v>35.016554301869299</v>
-      </c>
-      <c r="J13" s="22">
-        <v>8.4211836303505407</v>
+      <c r="C13" s="22">
+        <v>69.678200000000004</v>
+      </c>
+      <c r="D13" s="22">
+        <v>65.424599999999998</v>
+      </c>
+      <c r="E13" s="23">
+        <v>74.278599999999997</v>
+      </c>
+      <c r="F13" s="22">
+        <v>46.738294835336397</v>
+      </c>
+      <c r="G13" s="22">
+        <v>43.3277369568914</v>
+      </c>
+      <c r="H13" s="22">
+        <v>2.9621864627112</v>
+      </c>
+      <c r="I13" s="22">
+        <v>42.5861336120403</v>
+      </c>
+      <c r="J13" s="23">
+        <v>11.123944499848699</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="15">
         <v>79.153999999999996</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="15">
         <v>80.433999999999997</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="16">
         <v>77.819000000000003</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="17">
         <v>94.581713519790398</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="17">
         <v>5.3460157879907699</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="17">
         <v>7.2291050160340001E-2</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="17">
         <v>64.948388546784997</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="16">
         <v>29.633324973005401</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="15">
         <v>76.072999999999993</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="15">
         <v>71.108000000000004</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="16">
         <v>81.099999999999994</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="17">
         <v>73.561886257177903</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="17">
         <v>23.342683432991699</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="17">
         <v>3.0954303098303799</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I15" s="17">
         <v>59.796195193592702</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="16">
         <v>13.7656910635852</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="15">
         <v>71.954999999999998</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="15">
         <v>64.44</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="16">
         <v>79.775999999999996</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="17">
         <v>91.379230883927704</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="17">
         <v>7.4631098098220203</v>
       </c>
-      <c r="H16" s="16">
+      <c r="H16" s="17">
         <v>1.15765930625025</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I16" s="17">
         <v>54.361460154799197</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J16" s="16">
         <v>37.0177707291285</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="12">
         <v>70.698999999999998</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="12">
         <v>63.944000000000003</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="13">
         <v>77.546999999999997</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="12">
         <v>93.024105049667</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="12">
         <v>6.7437017291237797</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="12">
         <v>0.23221022173790001</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="12">
         <v>65.586237731993506</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="13">
         <v>27.4378673176736</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="12">
         <v>69.447999999999993</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="12">
         <v>67.531999999999996</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="13">
         <v>71.396000000000001</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="12">
         <v>75.978163805840694</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="12">
         <v>22.947623271040001</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="12">
         <v>1.0741623576455499</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="12">
         <v>70.6233307072998</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="13">
         <v>5.35483309854098</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="12">
         <v>63.462000000000003</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="12">
         <v>60.722000000000001</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="13">
         <v>66.260999999999996</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="12">
         <v>79.673729843788607</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="12">
         <v>18.3229505419608</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="12">
         <v>2.0033231252123</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="12">
         <v>60.863896693464099</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="13">
         <v>18.809833150324501</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="12">
         <v>61.966999999999999</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="12">
         <v>54.774999999999999</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="13">
         <v>67.072999999999993</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="12">
         <v>77.290352777878695</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="12">
         <v>14.0388890906376</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="12">
         <v>8.6709598802419396</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="12">
         <v>69.276488603212698</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="13">
         <v>8.0138641746660095</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="12">
         <v>52.895000000000003</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="12">
         <v>43.526000000000003</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="13">
         <v>61.832999999999998</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="12">
         <v>31.464172297121799</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="12">
         <v>66.157010912289607</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="12">
         <v>2.3788167905886302</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="12">
         <v>30.393202589028199</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="13">
         <v>1.07096970809366</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="15">
         <v>57.789000000000001</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="15">
         <v>41.420999999999999</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="16">
         <v>74.37</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="17">
         <v>48.113540763574498</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="17">
         <v>50.272934527823303</v>
       </c>
-      <c r="H22" s="16">
+      <c r="H22" s="17">
         <v>1.61191921137976</v>
       </c>
-      <c r="I22" s="16">
+      <c r="I22" s="17">
         <v>43.7706707767396</v>
       </c>
-      <c r="J22" s="15">
+      <c r="J22" s="16">
         <v>4.3428699868349199</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="21">
-        <v>67.805614913010501</v>
-      </c>
-      <c r="D23" s="21">
-        <v>64.3069616959868</v>
-      </c>
-      <c r="E23" s="22">
-        <v>71.339842265160797</v>
-      </c>
-      <c r="F23" s="21">
-        <v>80.631728845483394</v>
-      </c>
-      <c r="G23" s="21">
-        <v>18.1912689423866</v>
-      </c>
-      <c r="H23" s="21">
-        <v>2.0108209709976101</v>
-      </c>
-      <c r="I23" s="21">
-        <v>60.995605688576099</v>
-      </c>
-      <c r="J23" s="22">
-        <v>18.802308156572501</v>
+      <c r="C23" s="22">
+        <v>67.049111111111102</v>
+      </c>
+      <c r="D23" s="22">
+        <v>60.878</v>
+      </c>
+      <c r="E23" s="23">
+        <v>73.019444444444503</v>
+      </c>
+      <c r="F23" s="22">
+        <v>73.896321688751897</v>
+      </c>
+      <c r="G23" s="22">
+        <v>17.231970268763</v>
+      </c>
+      <c r="H23" s="22">
+        <v>1.8614470904040401</v>
+      </c>
+      <c r="I23" s="22">
+        <v>61.388428924966398</v>
+      </c>
+      <c r="J23" s="23">
+        <v>19.518157339294</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="15">
         <v>43.280999999999999</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="15">
         <v>36.581000000000003</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="16">
         <v>49.942999999999998</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="17">
         <v>63.710144927536199</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G24" s="17">
         <v>31.318840579710201</v>
       </c>
-      <c r="H24" s="16">
+      <c r="H24" s="17">
         <v>4.9710144927536204</v>
       </c>
-      <c r="I24" s="16">
+      <c r="I24" s="17">
         <v>50.828424497428699</v>
       </c>
-      <c r="J24" s="15">
+      <c r="J24" s="16">
         <v>12.881720430107499</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="15">
         <v>60.243000000000002</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="15">
         <v>50.71</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="16">
         <v>68.792000000000002</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="17">
         <v>44.741264974521201</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25" s="17">
         <v>52.894760864078897</v>
       </c>
-      <c r="H25" s="16">
+      <c r="H25" s="17">
         <v>2.3639741613999701</v>
       </c>
-      <c r="I25" s="16">
+      <c r="I25" s="17">
         <v>36.592064779067101</v>
       </c>
-      <c r="J25" s="15">
+      <c r="J25" s="16">
         <v>8.14920019545408</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="15">
         <v>78.388000000000005</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="15">
         <v>71.459000000000003</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="16">
         <v>85.474000000000004</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="17">
         <v>86.382506955425995</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="17">
         <v>13.1200467689034</v>
       </c>
-      <c r="H26" s="16">
+      <c r="H26" s="17">
         <v>0.49744627567055999</v>
       </c>
-      <c r="I26" s="16">
+      <c r="I26" s="17">
         <v>48.6087172917224</v>
       </c>
-      <c r="J26" s="15">
+      <c r="J26" s="16">
         <v>37.773789663703703</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="15">
         <v>79.55</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="15">
         <v>73.441000000000003</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="16">
         <v>85.754999999999995</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27" s="17">
         <v>85.971153204125997</v>
       </c>
-      <c r="G27" s="16">
+      <c r="G27" s="17">
         <v>13.4639300247091</v>
       </c>
-      <c r="H27" s="16">
+      <c r="H27" s="17">
         <v>0.56491869097239999</v>
       </c>
-      <c r="I27" s="16">
+      <c r="I27" s="17">
         <v>47.775027674983797</v>
       </c>
-      <c r="J27" s="15">
+      <c r="J27" s="16">
         <v>38.196125529142101</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="15">
         <v>74.695999999999998</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="15">
         <v>72.128</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="16">
         <v>77.344999999999999</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="17">
         <v>51.300297155351402</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G28" s="17">
         <v>48.444069149882303</v>
       </c>
-      <c r="H28" s="16">
+      <c r="H28" s="17">
         <v>0.25563369476630998</v>
       </c>
-      <c r="I28" s="16">
+      <c r="I28" s="17">
         <v>43.916165396506003</v>
       </c>
-      <c r="J28" s="15">
+      <c r="J28" s="16">
         <v>7.3841317588454203</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="15">
         <v>86.126999999999995</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="15">
         <v>83.372</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="16">
         <v>88.938000000000002</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="17">
         <v>85.075762396918705</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="17">
         <v>11.102343352828299</v>
       </c>
-      <c r="H29" s="16">
+      <c r="H29" s="17">
         <v>3.8218942502530502</v>
       </c>
-      <c r="I29" s="16">
+      <c r="I29" s="17">
         <v>44.938601278165699</v>
       </c>
-      <c r="J29" s="15">
+      <c r="J29" s="16">
         <v>40.1371611187529</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="15">
         <v>58.313000000000002</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="15">
         <v>45.151000000000003</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="16">
         <v>71.984999999999999</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="17">
         <v>16.1709890871055</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G30" s="17">
         <v>79.524373413747199</v>
       </c>
-      <c r="H30" s="16">
+      <c r="H30" s="17">
         <v>4.3046374991472902</v>
       </c>
-      <c r="I30" s="16">
+      <c r="I30" s="17">
         <v>14.1113748427959</v>
       </c>
-      <c r="J30" s="15">
+      <c r="J30" s="16">
         <v>2.0596142443096102</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="15">
         <v>83.655000000000001</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="15">
         <v>83.932000000000002</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="16">
         <v>83.361000000000004</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F31" s="17">
         <v>67.995791013598094</v>
       </c>
-      <c r="G31" s="16">
+      <c r="G31" s="17">
         <v>31.943068790026</v>
       </c>
-      <c r="H31" s="16">
+      <c r="H31" s="17">
         <v>6.1156076946449998E-2</v>
       </c>
-      <c r="I31" s="16">
+      <c r="I31" s="17">
         <v>39.480924496939302</v>
       </c>
-      <c r="J31" s="15">
+      <c r="J31" s="16">
         <v>28.514866516658799</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G32" s="16" t="s">
+      <c r="G32" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="H32" s="16" t="s">
+      <c r="H32" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="I32" s="16" t="s">
+      <c r="I32" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="J32" s="15" t="s">
+      <c r="J32" s="16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="15">
         <v>47.398000000000003</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="15">
         <v>21.754999999999999</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="16">
         <v>73.61</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F33" s="17">
         <v>87.244514648966899</v>
       </c>
-      <c r="G33" s="16">
+      <c r="G33" s="17">
         <v>11.6446482368299</v>
       </c>
-      <c r="H33" s="16">
+      <c r="H33" s="17">
         <v>1.11083711420325</v>
       </c>
-      <c r="I33" s="16">
+      <c r="I33" s="17">
         <v>48.551600611377197</v>
       </c>
-      <c r="J33" s="15">
+      <c r="J33" s="16">
         <v>38.692914037589702</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="12">
         <v>72.385999999999996</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="12">
         <v>70.959000000000003</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="13">
         <v>73.832999999999998</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="12">
         <v>84.854445069544397</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G34" s="12">
         <v>11.7457824018938</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H34" s="12">
         <v>3.3997725285617899</v>
       </c>
-      <c r="I34" s="11">
+      <c r="I34" s="12">
         <v>45.701958835950201</v>
       </c>
-      <c r="J34" s="12">
+      <c r="J34" s="13">
         <v>39.152486233594203</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="14">
+      <c r="C35" s="15">
         <v>48.439</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D35" s="15">
         <v>29.103000000000002</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="16">
         <v>68.197000000000003</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="17">
         <v>50.4007604829225</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="17">
         <v>43.917715006379701</v>
       </c>
-      <c r="H35" s="16">
+      <c r="H35" s="17">
         <v>5.6815148569591098</v>
       </c>
-      <c r="I35" s="16">
+      <c r="I35" s="17">
         <v>33.735549921848197</v>
       </c>
-      <c r="J35" s="15">
+      <c r="J35" s="16">
         <v>16.6652105610743</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="14">
+      <c r="C36" s="15">
         <v>83.412000000000006</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D36" s="15">
         <v>79.564999999999998</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="16">
         <v>87.337999999999994</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F36" s="17">
         <v>82.728141218381495</v>
       </c>
-      <c r="G36" s="16">
+      <c r="G36" s="17">
         <v>14.4970953985103</v>
       </c>
-      <c r="H36" s="16">
+      <c r="H36" s="17">
         <v>2.7747633831081702</v>
       </c>
-      <c r="I36" s="16">
+      <c r="I36" s="17">
         <v>50.114858230748098</v>
       </c>
-      <c r="J36" s="15">
+      <c r="J36" s="16">
         <v>32.613282987633497</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37" s="15">
         <v>70.337000000000003</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D37" s="15">
         <v>66.998000000000005</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E37" s="16">
         <v>73.921000000000006</v>
       </c>
-      <c r="F37" s="16">
+      <c r="F37" s="17">
         <v>75.239361742789697</v>
       </c>
-      <c r="G37" s="16">
+      <c r="G37" s="17">
         <v>21.6118920859372</v>
       </c>
-      <c r="H37" s="16">
+      <c r="H37" s="17">
         <v>3.14875228683964</v>
       </c>
-      <c r="I37" s="16">
+      <c r="I37" s="17">
         <v>59.846328045712703</v>
       </c>
-      <c r="J37" s="15">
+      <c r="J37" s="16">
         <v>15.393033697077</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="21">
-        <v>73.801970478504998</v>
-      </c>
-      <c r="D38" s="21">
-        <v>67.115802535736705</v>
-      </c>
-      <c r="E38" s="22">
-        <v>80.642476006420694</v>
-      </c>
-      <c r="F38" s="21">
-        <v>74.468632389808704</v>
-      </c>
-      <c r="G38" s="21">
-        <v>19.6863792751804</v>
-      </c>
-      <c r="H38" s="21">
-        <v>1.3874600786248501</v>
-      </c>
-      <c r="I38" s="21">
-        <v>47.739543756318398</v>
-      </c>
-      <c r="J38" s="22">
-        <v>31.186618111819499</v>
+      <c r="C38" s="22">
+        <v>68.171153846153899</v>
+      </c>
+      <c r="D38" s="22">
+        <v>60.396461538461601</v>
+      </c>
+      <c r="E38" s="23">
+        <v>76.037846153846203</v>
+      </c>
+      <c r="F38" s="22">
+        <v>67.831933298245303</v>
+      </c>
+      <c r="G38" s="22">
+        <v>22.3783365811796</v>
+      </c>
+      <c r="H38" s="22">
+        <v>1.85704714407785</v>
+      </c>
+      <c r="I38" s="22">
+        <v>47.185984896315396</v>
+      </c>
+      <c r="J38" s="23">
+        <v>28.578632637501901</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="12">
         <v>41.15</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="12">
         <v>14.590999999999999</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="13">
         <v>67.403999999999996</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="12">
         <v>26.9931710467404</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G39" s="12">
         <v>68.389433697995798</v>
       </c>
-      <c r="H39" s="11">
+      <c r="H39" s="12">
         <v>4.6173952552637498</v>
       </c>
-      <c r="I39" s="11">
+      <c r="I39" s="12">
         <v>25.130028837203799</v>
       </c>
-      <c r="J39" s="12">
+      <c r="J39" s="13">
         <v>1.8631422095365999</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="14">
+      <c r="C40" s="15">
         <v>46.412999999999997</v>
       </c>
-      <c r="D40" s="14">
+      <c r="D40" s="15">
         <v>21.933</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E40" s="16">
         <v>70.858000000000004</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F40" s="17">
         <v>20.720498568702101</v>
       </c>
-      <c r="G40" s="16">
+      <c r="G40" s="17">
         <v>68.746167497001395</v>
       </c>
-      <c r="H40" s="16">
+      <c r="H40" s="17">
         <v>10.533319394866</v>
       </c>
-      <c r="I40" s="16">
+      <c r="I40" s="17">
         <v>12.7815987804907</v>
       </c>
-      <c r="J40" s="15">
+      <c r="J40" s="16">
         <v>7.9388997882113896</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="12">
         <v>49.686</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="12">
         <v>33.948999999999998</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E41" s="13">
         <v>65.31</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="12">
         <v>5.7232803240376997</v>
       </c>
-      <c r="G41" s="11">
+      <c r="G41" s="12">
         <v>93.170064026847697</v>
       </c>
-      <c r="H41" s="11">
+      <c r="H41" s="12">
         <v>1.10670634337249</v>
       </c>
-      <c r="I41" s="11">
+      <c r="I41" s="12">
         <v>5.2882728973289197</v>
       </c>
-      <c r="J41" s="12">
+      <c r="J41" s="13">
         <v>0.43500742670878001</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="12">
         <v>45.884</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="12">
         <v>28.85</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E42" s="13">
         <v>63.055</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="12">
         <v>52.502431221668999</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G42" s="12">
         <v>44.853958418581101</v>
       </c>
-      <c r="H42" s="11">
+      <c r="H42" s="12">
         <v>2.6436103597499501</v>
       </c>
-      <c r="I42" s="11">
+      <c r="I42" s="12">
         <v>43.969596000928199</v>
       </c>
-      <c r="J42" s="12">
+      <c r="J42" s="13">
         <v>8.5328352207407594</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="14">
+      <c r="C43" s="15">
         <v>45.305999999999997</v>
       </c>
-      <c r="D43" s="14">
+      <c r="D43" s="15">
         <v>21.469000000000001</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E43" s="16">
         <v>70.138999999999996</v>
       </c>
-      <c r="F43" s="16">
+      <c r="F43" s="17">
         <v>47.538219483844102</v>
       </c>
-      <c r="G43" s="16">
+      <c r="G43" s="17">
         <v>49.827991146075398</v>
       </c>
-      <c r="H43" s="16">
+      <c r="H43" s="17">
         <v>2.6337893700805299</v>
       </c>
-      <c r="I43" s="16">
+      <c r="I43" s="17">
         <v>28.686094634835701</v>
       </c>
-      <c r="J43" s="15">
+      <c r="J43" s="16">
         <v>18.852124849008401</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="14">
+      <c r="C44" s="15">
         <v>46.124000000000002</v>
       </c>
-      <c r="D44" s="14">
+      <c r="D44" s="15">
         <v>23.777000000000001</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E44" s="16">
         <v>69.433000000000007</v>
       </c>
-      <c r="F44" s="16">
+      <c r="F44" s="17">
         <v>19.964415901028801</v>
       </c>
-      <c r="G44" s="16">
+      <c r="G44" s="17">
         <v>72.946499741291305</v>
       </c>
-      <c r="H44" s="16">
+      <c r="H44" s="17">
         <v>7.0890843576799201</v>
       </c>
-      <c r="I44" s="16">
+      <c r="I44" s="17">
         <v>16.977961981475499</v>
       </c>
-      <c r="J44" s="15">
+      <c r="J44" s="16">
         <v>2.98645391955325</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="21">
-        <v>45.178202381442901</v>
-      </c>
-      <c r="D45" s="21">
-        <v>20.9536964863787</v>
-      </c>
-      <c r="E45" s="22">
-        <v>69.554428193337699</v>
-      </c>
-      <c r="F45" s="21">
-        <v>27.036071038468702</v>
-      </c>
-      <c r="G45" s="21">
-        <v>66.748341873909595</v>
-      </c>
-      <c r="H45" s="21">
-        <v>8.8430320298066807</v>
-      </c>
-      <c r="I45" s="21">
-        <v>16.135678021186799</v>
-      </c>
-      <c r="J45" s="22">
-        <v>8.2729373724738107</v>
+      <c r="C45" s="22">
+        <v>45.7605</v>
+      </c>
+      <c r="D45" s="22">
+        <v>24.094833333333298</v>
+      </c>
+      <c r="E45" s="23">
+        <v>67.699833333333402</v>
+      </c>
+      <c r="F45" s="22">
+        <v>28.907002757670401</v>
+      </c>
+      <c r="G45" s="22">
+        <v>65.597757728590494</v>
+      </c>
+      <c r="H45" s="22">
+        <v>7.12788902899368</v>
+      </c>
+      <c r="I45" s="22">
+        <v>18.929618005390999</v>
+      </c>
+      <c r="J45" s="23">
+        <v>8.3447298691776908</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C46" s="14">
+      <c r="C46" s="15">
         <v>70.867999999999995</v>
       </c>
-      <c r="D46" s="14">
+      <c r="D46" s="15">
         <v>68.808000000000007</v>
       </c>
-      <c r="E46" s="15">
+      <c r="E46" s="16">
         <v>72.983000000000004</v>
       </c>
-      <c r="F46" s="16">
+      <c r="F46" s="17">
         <v>87.732044172589298</v>
       </c>
-      <c r="G46" s="16">
+      <c r="G46" s="17">
         <v>10.959326470647399</v>
       </c>
-      <c r="H46" s="16">
+      <c r="H46" s="17">
         <v>1.3086081952278601</v>
       </c>
-      <c r="I46" s="16">
+      <c r="I46" s="17">
         <v>72.383138065264305</v>
       </c>
-      <c r="J46" s="15">
+      <c r="J46" s="16">
         <v>15.348906107325</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C47" s="14">
+      <c r="C47" s="15">
         <v>66.430000000000007</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D47" s="15">
         <v>58.308</v>
       </c>
-      <c r="E47" s="15">
+      <c r="E47" s="16">
         <v>74.825999999999993</v>
       </c>
-      <c r="F47" s="16">
+      <c r="F47" s="17">
         <v>86.419743210385903</v>
       </c>
-      <c r="G47" s="16">
+      <c r="G47" s="17">
         <v>12.9030202870966</v>
       </c>
-      <c r="H47" s="16">
+      <c r="H47" s="17">
         <v>0.67723650251751</v>
       </c>
-      <c r="I47" s="16">
+      <c r="I47" s="17">
         <v>46.515415419290498</v>
       </c>
-      <c r="J47" s="15">
+      <c r="J47" s="16">
         <v>39.904327791095398</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="14">
+      <c r="C48" s="15">
         <v>60.454999999999998</v>
       </c>
-      <c r="D48" s="14">
+      <c r="D48" s="15">
         <v>53.341999999999999</v>
       </c>
-      <c r="E48" s="15">
+      <c r="E48" s="16">
         <v>67.555999999999997</v>
       </c>
-      <c r="F48" s="16">
+      <c r="F48" s="17">
         <v>35.1676920498887</v>
       </c>
-      <c r="G48" s="16">
+      <c r="G48" s="17">
         <v>61.123692337155603</v>
       </c>
-      <c r="H48" s="16">
+      <c r="H48" s="17">
         <v>3.7086156129557399</v>
       </c>
-      <c r="I48" s="16">
+      <c r="I48" s="17">
         <v>25.045364230483798</v>
       </c>
-      <c r="J48" s="15">
+      <c r="J48" s="16">
         <v>10.1223278194049</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C49" s="14">
+      <c r="C49" s="15">
         <v>56.953000000000003</v>
       </c>
-      <c r="D49" s="14">
+      <c r="D49" s="15">
         <v>48.156999999999996</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E49" s="16">
         <v>65.540000000000006</v>
       </c>
-      <c r="F49" s="16">
+      <c r="F49" s="17">
         <v>71.186790195584805</v>
       </c>
-      <c r="G49" s="16">
+      <c r="G49" s="17">
         <v>27.251691584158301</v>
       </c>
-      <c r="H49" s="16">
+      <c r="H49" s="17">
         <v>1.56151822025694</v>
       </c>
-      <c r="I49" s="16">
+      <c r="I49" s="17">
         <v>58.961403796156503</v>
       </c>
-      <c r="J49" s="15">
+      <c r="J49" s="16">
         <v>12.225386399428301</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C50" s="14">
+      <c r="C50" s="15">
         <v>59.401000000000003</v>
       </c>
-      <c r="D50" s="14">
+      <c r="D50" s="15">
         <v>51.179000000000002</v>
       </c>
-      <c r="E50" s="15">
+      <c r="E50" s="16">
         <v>67.989000000000004</v>
       </c>
-      <c r="F50" s="16">
+      <c r="F50" s="17">
         <v>72.051339947220598</v>
       </c>
-      <c r="G50" s="16">
+      <c r="G50" s="17">
         <v>26.456301773895401</v>
       </c>
-      <c r="H50" s="16">
+      <c r="H50" s="17">
         <v>1.49235827888401</v>
       </c>
-      <c r="I50" s="16">
+      <c r="I50" s="17">
         <v>60.348428613765002</v>
       </c>
-      <c r="J50" s="15">
+      <c r="J50" s="16">
         <v>11.702911333455599</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="11">
+      <c r="C51" s="12">
         <v>67.798000000000002</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D51" s="12">
         <v>63.628999999999998</v>
       </c>
-      <c r="E51" s="12">
+      <c r="E51" s="13">
         <v>71.891000000000005</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F51" s="12">
         <v>68.700986616003107</v>
       </c>
-      <c r="G51" s="11">
+      <c r="G51" s="12">
         <v>25.644741201240301</v>
       </c>
-      <c r="H51" s="11">
+      <c r="H51" s="12">
         <v>5.6542640905664996</v>
       </c>
-      <c r="I51" s="11">
+      <c r="I51" s="12">
         <v>59.794285198235201</v>
       </c>
-      <c r="J51" s="12">
+      <c r="J51" s="13">
         <v>8.9067014177679003</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="14">
+      <c r="C52" s="15">
         <v>61.533999999999999</v>
       </c>
-      <c r="D52" s="14">
+      <c r="D52" s="15">
         <v>62.698999999999998</v>
       </c>
-      <c r="E52" s="15">
+      <c r="E52" s="16">
         <v>60.204999999999998</v>
       </c>
-      <c r="F52" s="16">
+      <c r="F52" s="17">
         <v>89.373659675249101</v>
       </c>
-      <c r="G52" s="16">
+      <c r="G52" s="17">
         <v>8.4951284536911</v>
       </c>
-      <c r="H52" s="16">
+      <c r="H52" s="17">
         <v>2.1312353829510999</v>
       </c>
-      <c r="I52" s="16">
+      <c r="I52" s="17">
         <v>59.865037041809103</v>
       </c>
-      <c r="J52" s="15">
+      <c r="J52" s="16">
         <v>29.508622633440002</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="14">
+      <c r="C53" s="15">
         <v>71.963999999999999</v>
       </c>
-      <c r="D53" s="14">
+      <c r="D53" s="15">
         <v>65.834999999999994</v>
       </c>
-      <c r="E53" s="15">
+      <c r="E53" s="16">
         <v>78.653000000000006</v>
       </c>
-      <c r="F53" s="16">
+      <c r="F53" s="17">
         <v>75.739998512694697</v>
       </c>
-      <c r="G53" s="16">
+      <c r="G53" s="17">
         <v>22.865909166673099</v>
       </c>
-      <c r="H53" s="16">
+      <c r="H53" s="17">
         <v>1.39409232063226</v>
       </c>
-      <c r="I53" s="16">
+      <c r="I53" s="17">
         <v>52.155182361584501</v>
       </c>
-      <c r="J53" s="15">
+      <c r="J53" s="16">
         <v>23.5848161511102</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C54" s="14">
+      <c r="C54" s="15">
         <v>76.314999999999998</v>
       </c>
-      <c r="D54" s="14">
+      <c r="D54" s="15">
         <v>72.058000000000007</v>
       </c>
-      <c r="E54" s="15">
+      <c r="E54" s="16">
         <v>80.614999999999995</v>
       </c>
-      <c r="F54" s="16">
+      <c r="F54" s="17">
         <v>77.197408897029803</v>
       </c>
-      <c r="G54" s="16">
+      <c r="G54" s="17">
         <v>21.2853375172499</v>
       </c>
-      <c r="H54" s="16">
+      <c r="H54" s="17">
         <v>1.51725358572036</v>
       </c>
-      <c r="I54" s="16">
+      <c r="I54" s="17">
         <v>68.763556783853801</v>
       </c>
-      <c r="J54" s="15">
+      <c r="J54" s="16">
         <v>8.4338521131759308</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C55" s="14">
+      <c r="C55" s="15">
         <v>70.813000000000002</v>
       </c>
-      <c r="D55" s="14">
+      <c r="D55" s="15">
         <v>61.247999999999998</v>
       </c>
-      <c r="E55" s="15">
+      <c r="E55" s="16">
         <v>80.613</v>
       </c>
-      <c r="F55" s="16">
+      <c r="F55" s="17">
         <v>80.985658658437998</v>
       </c>
-      <c r="G55" s="16">
+      <c r="G55" s="17">
         <v>18.410256410256402</v>
       </c>
-      <c r="H55" s="16">
+      <c r="H55" s="17">
         <v>0.60408493130555996</v>
       </c>
-      <c r="I55" s="16">
+      <c r="I55" s="17">
         <v>55.225141429726001</v>
       </c>
-      <c r="J55" s="15">
+      <c r="J55" s="16">
         <v>25.7605172287121</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C56" s="14">
+      <c r="C56" s="15">
         <v>72.042000000000002</v>
       </c>
-      <c r="D56" s="14">
+      <c r="D56" s="15">
         <v>60.585999999999999</v>
       </c>
-      <c r="E56" s="15">
+      <c r="E56" s="16">
         <v>83.671000000000006</v>
       </c>
-      <c r="F56" s="16">
+      <c r="F56" s="17">
         <v>93.675069370437797</v>
       </c>
-      <c r="G56" s="16">
+      <c r="G56" s="17">
         <v>5.65088448948344</v>
       </c>
-      <c r="H56" s="16">
+      <c r="H56" s="17">
         <v>0.67405806862108997</v>
       </c>
-      <c r="I56" s="16">
+      <c r="I56" s="17">
         <v>59.907560954254798</v>
       </c>
-      <c r="J56" s="15">
+      <c r="J56" s="16">
         <v>33.767508416182999</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C57" s="11">
+      <c r="C57" s="12">
         <v>52.906999999999996</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D57" s="12">
         <v>47.872</v>
       </c>
-      <c r="E57" s="12">
+      <c r="E57" s="13">
         <v>57.875</v>
       </c>
-      <c r="F57" s="11">
+      <c r="F57" s="12">
         <v>77.612484630583296</v>
       </c>
-      <c r="G57" s="11">
+      <c r="G57" s="12">
         <v>18.551576824875902</v>
       </c>
-      <c r="H57" s="11">
+      <c r="H57" s="12">
         <v>3.8359330925402801</v>
       </c>
-      <c r="I57" s="11">
+      <c r="I57" s="12">
         <v>64.058356905512099</v>
       </c>
-      <c r="J57" s="12">
+      <c r="J57" s="13">
         <v>13.554127725071201</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C58" s="14">
+      <c r="C58" s="15">
         <v>45.683999999999997</v>
       </c>
-      <c r="D58" s="14">
+      <c r="D58" s="15">
         <v>35.048000000000002</v>
       </c>
-      <c r="E58" s="15">
+      <c r="E58" s="16">
         <v>57.514000000000003</v>
       </c>
-      <c r="F58" s="16">
+      <c r="F58" s="17">
         <v>64.627816627034704</v>
       </c>
-      <c r="G58" s="16">
+      <c r="G58" s="17">
         <v>34.514083481130498</v>
       </c>
-      <c r="H58" s="16">
+      <c r="H58" s="17">
         <v>0.85809989183488</v>
       </c>
-      <c r="I58" s="16">
+      <c r="I58" s="17">
         <v>42.2226410052739</v>
       </c>
-      <c r="J58" s="15">
+      <c r="J58" s="16">
         <v>22.405175621760701</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C59" s="14">
+      <c r="C59" s="15">
         <v>57.896000000000001</v>
       </c>
-      <c r="D59" s="14">
+      <c r="D59" s="15">
         <v>57.308999999999997</v>
       </c>
-      <c r="E59" s="15">
+      <c r="E59" s="16">
         <v>58.488999999999997</v>
       </c>
-      <c r="F59" s="16">
+      <c r="F59" s="17">
         <v>86.124837131548603</v>
       </c>
-      <c r="G59" s="16">
+      <c r="G59" s="17">
         <v>11.264116729121501</v>
       </c>
-      <c r="H59" s="16">
+      <c r="H59" s="17">
         <v>2.6110851614207302</v>
       </c>
-      <c r="I59" s="16">
+      <c r="I59" s="17">
         <v>79.812779812779794</v>
       </c>
-      <c r="J59" s="15">
+      <c r="J59" s="16">
         <v>6.3120573187687299</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C60" s="11">
+      <c r="C60" s="12">
         <v>77.591999999999999</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D60" s="12">
         <v>76.277000000000001</v>
       </c>
-      <c r="E60" s="12">
+      <c r="E60" s="13">
         <v>78.936000000000007</v>
       </c>
-      <c r="F60" s="11">
+      <c r="F60" s="12">
         <v>80.911260093485396</v>
       </c>
-      <c r="G60" s="11">
+      <c r="G60" s="12">
         <v>17.2796165461844</v>
       </c>
-      <c r="H60" s="11">
+      <c r="H60" s="12">
         <v>1.80915094852347</v>
       </c>
-      <c r="I60" s="11">
+      <c r="I60" s="12">
         <v>54.441326672072101</v>
       </c>
-      <c r="J60" s="12">
+      <c r="J60" s="13">
         <v>26.469933421413199</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="19" t="s">
+      <c r="A61" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="20" t="s">
+      <c r="B61" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="C61" s="21">
-        <v>58.707740259608997</v>
-      </c>
-      <c r="D61" s="21">
-        <v>52.920907220819899</v>
-      </c>
-      <c r="E61" s="22">
-        <v>64.529474974623696</v>
-      </c>
-      <c r="F61" s="21">
-        <v>78.368611054679405</v>
-      </c>
-      <c r="G61" s="21">
-        <v>18.640944682498802</v>
-      </c>
-      <c r="H61" s="21">
-        <v>3.6868887930494001</v>
-      </c>
-      <c r="I61" s="21">
-        <v>63.3869905053281</v>
-      </c>
-      <c r="J61" s="22">
-        <v>14.285171218735201</v>
+      <c r="C61" s="22">
+        <v>64.576800000000006</v>
+      </c>
+      <c r="D61" s="22">
+        <v>58.823666666666703</v>
+      </c>
+      <c r="E61" s="23">
+        <v>70.490399999999994</v>
+      </c>
+      <c r="F61" s="22">
+        <v>76.500452652544894</v>
+      </c>
+      <c r="G61" s="22">
+        <v>18.5193355291158</v>
+      </c>
+      <c r="H61" s="22">
+        <v>2.86723381749225</v>
+      </c>
+      <c r="I61" s="22">
+        <v>60.896152726430998</v>
+      </c>
+      <c r="J61" s="23">
+        <v>17.717277099375799</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="23" t="s">
+      <c r="A62" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="24" t="s">
+      <c r="B62" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="C62" s="25">
-        <v>63.666081700921502</v>
-      </c>
-      <c r="D62" s="25">
-        <v>55.274480125578997</v>
-      </c>
-      <c r="E62" s="26">
-        <v>72.178550308554506</v>
-      </c>
-      <c r="F62" s="25">
-        <v>65.523892373453606</v>
-      </c>
-      <c r="G62" s="25">
-        <v>26.894763152131802</v>
-      </c>
-      <c r="H62" s="25">
-        <v>3.3870913901954101</v>
-      </c>
-      <c r="I62" s="25">
-        <v>50.5593846179693</v>
-      </c>
-      <c r="J62" s="26">
-        <v>19.158758277212399</v>
+      <c r="C62" s="26">
+        <v>64.710641509433998</v>
+      </c>
+      <c r="D62" s="26">
+        <v>56.872188679245298</v>
+      </c>
+      <c r="E62" s="27">
+        <v>72.679396226415093</v>
+      </c>
+      <c r="F62" s="26">
+        <v>62.928561938934202</v>
+      </c>
+      <c r="G62" s="26">
+        <v>29.028793083490299</v>
+      </c>
+      <c r="H62" s="26">
+        <v>2.9293751410009401</v>
+      </c>
+      <c r="I62" s="26">
+        <v>48.416123819427099</v>
+      </c>
+      <c r="J62" s="27">
+        <v>19.625708175350699</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="23" t="s">
+      <c r="A63" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B63" s="24" t="s">
+      <c r="B63" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="C63" s="25">
-        <v>60.050543425412499</v>
-      </c>
-      <c r="D63" s="25">
-        <v>44.938758971166898</v>
-      </c>
-      <c r="E63" s="26">
-        <v>74.706004118302104</v>
-      </c>
-      <c r="F63" s="25">
-        <v>42.906292162173003</v>
-      </c>
-      <c r="G63" s="25">
-        <v>45.1967533175456</v>
-      </c>
-      <c r="H63" s="25">
-        <v>1.7619176565246699</v>
-      </c>
-      <c r="I63" s="25">
-        <v>40.783547788160099</v>
-      </c>
-      <c r="J63" s="26">
-        <v>12.2577827414217</v>
+      <c r="C63" s="26">
+        <v>61.755231999999999</v>
+      </c>
+      <c r="D63" s="26">
+        <v>50.324047999999998</v>
+      </c>
+      <c r="E63" s="27">
+        <v>72.578183999999993</v>
+      </c>
+      <c r="F63" s="26">
+        <v>28.179629372493299</v>
+      </c>
+      <c r="G63" s="26">
+        <v>56.444100301996301</v>
+      </c>
+      <c r="H63" s="26">
+        <v>2.5598342523370601</v>
+      </c>
+      <c r="I63" s="26">
+        <v>31.4204174650494</v>
+      </c>
+      <c r="J63" s="27">
+        <v>9.5756476260391601</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A64" s="27" t="s">
+      <c r="A64" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B64" s="28" t="s">
+      <c r="B64" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="C64" s="29">
-        <v>64.156855162419205</v>
-      </c>
-      <c r="D64" s="29">
-        <v>52.063592970297798</v>
-      </c>
-      <c r="E64" s="30">
-        <v>76.970827612455594</v>
-      </c>
-      <c r="F64" s="29">
-        <v>32.875806072939199</v>
-      </c>
-      <c r="G64" s="29">
-        <v>66.223451408489495</v>
-      </c>
-      <c r="H64" s="29">
-        <v>4.6869915331613798</v>
-      </c>
-      <c r="I64" s="29">
-        <v>25.942397932379802</v>
-      </c>
-      <c r="J64" s="30">
-        <v>3.14715076956786</v>
+      <c r="C64" s="30">
+        <v>64.556068965517198</v>
+      </c>
+      <c r="D64" s="30">
+        <v>52.957172413793103</v>
+      </c>
+      <c r="E64" s="31">
+        <v>76.663172413793106</v>
+      </c>
+      <c r="F64" s="30">
+        <v>32.752781485149697</v>
+      </c>
+      <c r="G64" s="30">
+        <v>62.391192024158002</v>
+      </c>
+      <c r="H64" s="30">
+        <v>4.3846048198842498</v>
+      </c>
+      <c r="I64" s="30">
+        <v>28.591214422887901</v>
+      </c>
+      <c r="J64" s="31">
+        <v>4.6329842066670501</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A65" s="27" t="s">
+      <c r="A65" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B65" s="31" t="s">
+      <c r="B65" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="C65" s="32">
-        <v>59.404180889467398</v>
-      </c>
-      <c r="D65" s="32">
-        <v>41.310685528683202</v>
-      </c>
-      <c r="E65" s="30">
-        <v>76.708299360465901</v>
-      </c>
-      <c r="F65" s="32">
-        <v>56.066774253436598</v>
-      </c>
-      <c r="G65" s="32">
-        <v>42.588103299499998</v>
-      </c>
-      <c r="H65" s="32">
-        <v>1.6732401335871301</v>
-      </c>
-      <c r="I65" s="32">
-        <v>42.7610459741</v>
-      </c>
-      <c r="J65" s="30">
-        <v>12.9776126684094</v>
+      <c r="C65" s="33">
+        <v>60.182166666666703</v>
+      </c>
+      <c r="D65" s="33">
+        <v>43.9009</v>
+      </c>
+      <c r="E65" s="31">
+        <v>76.022766666666698</v>
+      </c>
+      <c r="F65" s="33">
+        <v>47.827899209109603</v>
+      </c>
+      <c r="G65" s="33">
+        <v>43.608779861617897</v>
+      </c>
+      <c r="H65" s="33">
+        <v>2.0395679876811199</v>
+      </c>
+      <c r="I65" s="33">
+        <v>40.872796009647999</v>
+      </c>
+      <c r="J65" s="31">
+        <v>13.4788574079809</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="27" t="s">
+      <c r="A66" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B66" s="31" t="s">
+      <c r="B66" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="C66" s="29">
-        <v>60.666443940724697</v>
-      </c>
-      <c r="D66" s="29">
-        <v>46.699430688638799</v>
-      </c>
-      <c r="E66" s="30">
-        <v>74.275456856668697</v>
-      </c>
-      <c r="F66" s="29">
-        <v>46.759160134727502</v>
-      </c>
-      <c r="G66" s="29">
-        <v>44.9049254657793</v>
-      </c>
-      <c r="H66" s="29">
-        <v>1.7878312842316999</v>
-      </c>
-      <c r="I66" s="29">
-        <v>40.9394249051008</v>
-      </c>
-      <c r="J66" s="30">
-        <v>12.3678197837051</v>
+      <c r="C66" s="30">
+        <v>62.635213483146103</v>
+      </c>
+      <c r="D66" s="30">
+        <v>52.273775280898903</v>
+      </c>
+      <c r="E66" s="31">
+        <v>72.608320224719094</v>
+      </c>
+      <c r="F66" s="30">
+        <v>38.526221653512202</v>
+      </c>
+      <c r="G66" s="30">
+        <v>52.627907518987101</v>
+      </c>
+      <c r="H66" s="30">
+        <v>2.6112741016557601</v>
+      </c>
+      <c r="I66" s="30">
+        <v>33.786208642028697</v>
+      </c>
+      <c r="J66" s="31">
+        <v>10.974609462629401</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A67" s="27" t="s">
+      <c r="A67" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B67" s="33" t="s">
+      <c r="B67" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="C67" s="34">
-        <v>66.194999078557501</v>
-      </c>
-      <c r="D67" s="34">
-        <v>56.591895526279998</v>
-      </c>
-      <c r="E67" s="35">
-        <v>75.948913033022905</v>
-      </c>
-      <c r="F67" s="34">
-        <v>62.768848893550803</v>
-      </c>
-      <c r="G67" s="34">
-        <v>29.894452663432698</v>
-      </c>
-      <c r="H67" s="34">
-        <v>3.0808606383142001</v>
-      </c>
-      <c r="I67" s="34">
-        <v>43.068672009037499</v>
-      </c>
-      <c r="J67" s="35">
-        <v>23.9560137400671</v>
+      <c r="C67" s="35">
+        <v>65.110150000000004</v>
+      </c>
+      <c r="D67" s="35">
+        <v>56.252049999999997</v>
+      </c>
+      <c r="E67" s="36">
+        <v>74.147649999999999</v>
+      </c>
+      <c r="F67" s="35">
+        <v>58.479843967791702</v>
+      </c>
+      <c r="G67" s="35">
+        <v>31.0306301733022</v>
+      </c>
+      <c r="H67" s="35">
+        <v>2.7613343408528701</v>
+      </c>
+      <c r="I67" s="35">
+        <v>44.156437619066203</v>
+      </c>
+      <c r="J67" s="36">
+        <v>22.051599258371802</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A68" s="27" t="s">
+      <c r="A68" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B68" s="31" t="s">
+      <c r="B68" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="C68" s="32">
-        <v>54.902622125075901</v>
-      </c>
-      <c r="D68" s="32">
-        <v>43.0850823661794</v>
-      </c>
-      <c r="E68" s="30">
-        <v>66.858540984972393</v>
-      </c>
-      <c r="F68" s="32">
-        <v>64.050653409174899</v>
-      </c>
-      <c r="G68" s="32">
-        <v>28.766862867782901</v>
-      </c>
-      <c r="H68" s="32">
-        <v>4.86115015998225</v>
-      </c>
-      <c r="I68" s="32">
-        <v>52.852440947780899</v>
-      </c>
-      <c r="J68" s="30">
-        <v>13.5195397494152</v>
+      <c r="C68" s="33">
+        <v>59.42792</v>
+      </c>
+      <c r="D68" s="33">
+        <v>48.997</v>
+      </c>
+      <c r="E68" s="31">
+        <v>70.052760000000006</v>
+      </c>
+      <c r="F68" s="33">
+        <v>67.938922490540193</v>
+      </c>
+      <c r="G68" s="33">
+        <v>30.4419748140878</v>
+      </c>
+      <c r="H68" s="33">
+        <v>4.0583252535613701</v>
+      </c>
+      <c r="I68" s="33">
+        <v>48.579260432296699</v>
+      </c>
+      <c r="J68" s="31">
+        <v>16.920437362725</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A69" s="27" t="s">
+      <c r="A69" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B69" s="31" t="s">
+      <c r="B69" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="C69" s="32">
-        <v>77.071873396618798</v>
-      </c>
-      <c r="D69" s="32">
-        <v>74.4228202313423</v>
-      </c>
-      <c r="E69" s="30">
-        <v>79.821202829242097</v>
-      </c>
-      <c r="F69" s="32">
-        <v>72.154928837001904</v>
-      </c>
-      <c r="G69" s="32">
-        <v>27.3998503796462</v>
-      </c>
-      <c r="H69" s="32">
-        <v>1.91739395409146</v>
-      </c>
-      <c r="I69" s="32">
-        <v>49.913995193719799</v>
-      </c>
-      <c r="J69" s="30">
-        <v>20.768762335759099</v>
+      <c r="C69" s="33">
+        <v>77.273333333333298</v>
+      </c>
+      <c r="D69" s="33">
+        <v>75.669333333333299</v>
+      </c>
+      <c r="E69" s="31">
+        <v>78.936166666666693</v>
+      </c>
+      <c r="F69" s="33">
+        <v>76.116624953242606</v>
+      </c>
+      <c r="G69" s="33">
+        <v>26.258997199196799</v>
+      </c>
+      <c r="H69" s="33">
+        <v>1.79072465433016</v>
+      </c>
+      <c r="I69" s="33">
+        <v>50.1492017113695</v>
+      </c>
+      <c r="J69" s="31">
+        <v>21.801080113949102</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A70" s="27" t="s">
+      <c r="A70" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B70" s="31" t="s">
+      <c r="B70" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="C70" s="32">
-        <v>70.367430429715796</v>
-      </c>
-      <c r="D70" s="32">
-        <v>67.452422405915897</v>
-      </c>
-      <c r="E70" s="30">
-        <v>73.319065595536799</v>
-      </c>
-      <c r="F70" s="32">
-        <v>77.480744498170097</v>
-      </c>
-      <c r="G70" s="32">
-        <v>19.8397550611074</v>
-      </c>
-      <c r="H70" s="32">
-        <v>2.2236323642140001</v>
-      </c>
-      <c r="I70" s="32">
-        <v>60.0522790256653</v>
-      </c>
-      <c r="J70" s="30">
-        <v>17.884337159657601</v>
+      <c r="C70" s="33">
+        <v>69.508181818181797</v>
+      </c>
+      <c r="D70" s="33">
+        <v>64.360909090909104</v>
+      </c>
+      <c r="E70" s="31">
+        <v>74.495363636363706</v>
+      </c>
+      <c r="F70" s="33">
+        <v>72.641631828543396</v>
+      </c>
+      <c r="G70" s="33">
+        <v>20.567481474521099</v>
+      </c>
+      <c r="H70" s="33">
+        <v>2.10661179021935</v>
+      </c>
+      <c r="I70" s="33">
+        <v>58.816183562204401</v>
+      </c>
+      <c r="J70" s="31">
+        <v>18.509727240789399</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A71" s="27" t="s">
+      <c r="A71" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B71" s="31" t="s">
+      <c r="B71" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="C71" s="32">
-        <v>58.707740259608997</v>
-      </c>
-      <c r="D71" s="32">
-        <v>52.920907220819998</v>
-      </c>
-      <c r="E71" s="30">
-        <v>64.529474974623696</v>
-      </c>
-      <c r="F71" s="32">
-        <v>78.368611054679405</v>
-      </c>
-      <c r="G71" s="32">
-        <v>18.640944682498802</v>
-      </c>
-      <c r="H71" s="32">
-        <v>3.6868887930494001</v>
-      </c>
-      <c r="I71" s="32">
-        <v>63.3869905053281</v>
-      </c>
-      <c r="J71" s="30">
-        <v>14.285171218735201</v>
+      <c r="C71" s="33">
+        <v>64.576800000000006</v>
+      </c>
+      <c r="D71" s="33">
+        <v>58.823666666666703</v>
+      </c>
+      <c r="E71" s="31">
+        <v>70.490399999999994</v>
+      </c>
+      <c r="F71" s="33">
+        <v>76.500452652544894</v>
+      </c>
+      <c r="G71" s="33">
+        <v>18.5193355291158</v>
+      </c>
+      <c r="H71" s="33">
+        <v>2.86723381749225</v>
+      </c>
+      <c r="I71" s="33">
+        <v>60.896152726430998</v>
+      </c>
+      <c r="J71" s="31">
+        <v>17.717277099375799</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A72" s="27" t="s">
+      <c r="A72" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B72" s="31" t="s">
+      <c r="B72" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="C72" s="32">
-        <v>70.375826283405402</v>
-      </c>
-      <c r="D72" s="32">
-        <v>62.450239271546799</v>
-      </c>
-      <c r="E72" s="30">
-        <v>78.487223425153701</v>
-      </c>
-      <c r="F72" s="32">
-        <v>72.345411622357005</v>
-      </c>
-      <c r="G72" s="32">
-        <v>20.904115139303698</v>
-      </c>
-      <c r="H72" s="32">
-        <v>1.0353574975415301</v>
-      </c>
-      <c r="I72" s="32">
-        <v>47.5041990495601</v>
-      </c>
-      <c r="J72" s="30">
-        <v>30.556329676157802</v>
+      <c r="C72" s="33">
+        <v>66.429625000000001</v>
+      </c>
+      <c r="D72" s="33">
+        <v>57.069125</v>
+      </c>
+      <c r="E72" s="31">
+        <v>75.865875000000003</v>
+      </c>
+      <c r="F72" s="33">
+        <v>70.766788029205998</v>
+      </c>
+      <c r="G72" s="33">
+        <v>24.786134769103899</v>
+      </c>
+      <c r="H72" s="33">
+        <v>1.4810275344230199</v>
+      </c>
+      <c r="I72" s="33">
+        <v>47.358396999458101</v>
+      </c>
+      <c r="J72" s="31">
+        <v>26.3744415936842</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A73" s="27" t="s">
+      <c r="A73" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B73" s="31" t="s">
+      <c r="B73" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="C73" s="32">
-        <v>71.763578535412805</v>
-      </c>
-      <c r="D73" s="32">
-        <v>68.178012659497995</v>
-      </c>
-      <c r="E73" s="30">
-        <v>75.521299339931005</v>
-      </c>
-      <c r="F73" s="32">
-        <v>64.906075105666304</v>
-      </c>
-      <c r="G73" s="32">
-        <v>28.2452550390922</v>
-      </c>
-      <c r="H73" s="32">
-        <v>2.8705140661530999</v>
-      </c>
-      <c r="I73" s="32">
-        <v>48.981761045848302</v>
-      </c>
-      <c r="J73" s="30">
-        <v>19.902470363014501</v>
+      <c r="C73" s="33">
+        <v>68.758466666666706</v>
+      </c>
+      <c r="D73" s="33">
+        <v>63.9758</v>
+      </c>
+      <c r="E73" s="31">
+        <v>73.816733333333403</v>
+      </c>
+      <c r="F73" s="33">
+        <v>52.982781055139597</v>
+      </c>
+      <c r="G73" s="33">
+        <v>29.230105657628499</v>
+      </c>
+      <c r="H73" s="33">
+        <v>2.81822887573114</v>
+      </c>
+      <c r="I73" s="33">
+        <v>48.065165221999997</v>
+      </c>
+      <c r="J73" s="31">
+        <v>19.886501728275999</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="27" t="s">
+      <c r="A74" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B74" s="31" t="s">
+      <c r="B74" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="C74" s="29">
-        <v>43.969114376064198</v>
-      </c>
-      <c r="D74" s="29">
-        <v>19.994782965531201</v>
-      </c>
-      <c r="E74" s="30">
-        <v>68.277997941207005</v>
-      </c>
-      <c r="F74" s="29">
-        <v>33.220147526417698</v>
-      </c>
-      <c r="G74" s="29">
-        <v>60.794696566417699</v>
-      </c>
-      <c r="H74" s="29">
-        <v>3.8058699657202202</v>
-      </c>
-      <c r="I74" s="29">
-        <v>26.1310439337643</v>
-      </c>
-      <c r="J74" s="30">
-        <v>9.2683902654005106</v>
+      <c r="C74" s="30">
+        <v>45.63</v>
+      </c>
+      <c r="D74" s="30">
+        <v>24.527200000000001</v>
+      </c>
+      <c r="E74" s="31">
+        <v>67.068200000000004</v>
+      </c>
+      <c r="F74" s="30">
+        <v>30.544303595464001</v>
+      </c>
+      <c r="G74" s="30">
+        <v>62.545379285866503</v>
+      </c>
+      <c r="H74" s="30">
+        <v>3.8263295111445101</v>
+      </c>
+      <c r="I74" s="30">
+        <v>24.890113216600501</v>
+      </c>
+      <c r="J74" s="31">
+        <v>8.7381815103774105</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A75" s="27" t="s">
+      <c r="A75" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B75" s="33" t="s">
+      <c r="B75" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="C75" s="34">
-        <v>67.523940822647504</v>
-      </c>
-      <c r="D75" s="34">
-        <v>55.7963879252395</v>
-      </c>
-      <c r="E75" s="35">
-        <v>79.447587837077606</v>
-      </c>
-      <c r="F75" s="34">
-        <v>46.067222642500703</v>
-      </c>
-      <c r="G75" s="34">
-        <v>49.449196112213002</v>
-      </c>
-      <c r="H75" s="34">
-        <v>3.3512270769209098</v>
-      </c>
-      <c r="I75" s="34">
-        <v>34.494182020100801</v>
-      </c>
-      <c r="J75" s="35">
-        <v>12.705394954443801</v>
+      <c r="C75" s="35">
+        <v>69.384699999999995</v>
+      </c>
+      <c r="D75" s="35">
+        <v>60.213900000000002</v>
+      </c>
+      <c r="E75" s="36">
+        <v>78.645899999999997</v>
+      </c>
+      <c r="F75" s="35">
+        <v>41.002168081778599</v>
+      </c>
+      <c r="G75" s="35">
+        <v>50.349625548359597</v>
+      </c>
+      <c r="H75" s="35">
+        <v>3.04479774812134</v>
+      </c>
+      <c r="I75" s="35">
+        <v>33.850119369056799</v>
+      </c>
+      <c r="J75" s="36">
+        <v>12.7554579529268</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A76" s="27" t="s">
+      <c r="A76" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B76" s="31" t="s">
+      <c r="B76" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="C76" s="32">
-        <v>65.391934570248793</v>
-      </c>
-      <c r="D76" s="32">
-        <v>55.0806602300867</v>
-      </c>
-      <c r="E76" s="30">
-        <v>76.244122068862893</v>
-      </c>
-      <c r="F76" s="32">
-        <v>33.3448293103108</v>
-      </c>
-      <c r="G76" s="32">
-        <v>65.764170461642806</v>
-      </c>
-      <c r="H76" s="32">
-        <v>4.6718461246705196</v>
-      </c>
-      <c r="I76" s="32">
-        <v>26.897935517940599</v>
-      </c>
-      <c r="J76" s="30">
-        <v>2.6660385913872</v>
+      <c r="C76" s="33">
+        <v>64.770750000000007</v>
+      </c>
+      <c r="D76" s="33">
+        <v>53.806750000000001</v>
+      </c>
+      <c r="E76" s="31">
+        <v>76.113333333333401</v>
+      </c>
+      <c r="F76" s="33">
+        <v>34.579838532053799</v>
+      </c>
+      <c r="G76" s="33">
+        <v>61.705770218845601</v>
+      </c>
+      <c r="H76" s="33">
+        <v>4.3416891676366998</v>
+      </c>
+      <c r="I76" s="33">
+        <v>29.791374626553701</v>
+      </c>
+      <c r="J76" s="31">
+        <v>4.16116083619342</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="27" t="s">
+      <c r="A77" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B77" s="31" t="s">
+      <c r="B77" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="C77" s="29">
-        <v>56.947789790650603</v>
-      </c>
-      <c r="D77" s="29">
-        <v>50.693072635451998</v>
-      </c>
-      <c r="E77" s="30">
-        <v>63.623545882431699</v>
-      </c>
-      <c r="F77" s="29">
-        <v>11.2041033276261</v>
-      </c>
-      <c r="G77" s="29">
-        <v>85.765937944369796</v>
-      </c>
-      <c r="H77" s="29">
-        <v>4.5032238318838198</v>
-      </c>
-      <c r="I77" s="29">
-        <v>8.9862983149197593</v>
-      </c>
-      <c r="J77" s="30">
-        <v>0.74453899847742</v>
+      <c r="C77" s="30">
+        <v>58.433296296296298</v>
+      </c>
+      <c r="D77" s="30">
+        <v>52.365037037037098</v>
+      </c>
+      <c r="E77" s="31">
+        <v>64.929481481481503</v>
+      </c>
+      <c r="F77" s="30">
+        <v>10.6071605154071</v>
+      </c>
+      <c r="G77" s="30">
+        <v>84.772420577760002</v>
+      </c>
+      <c r="H77" s="30">
+        <v>4.3073001186947701</v>
+      </c>
+      <c r="I77" s="30">
+        <v>9.9027426040966695</v>
+      </c>
+      <c r="J77" s="31">
+        <v>1.01753570695937</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A78" s="27" t="s">
+      <c r="A78" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B78" s="33" t="s">
+      <c r="B78" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="C78" s="34">
-        <v>58.927389800311701</v>
-      </c>
-      <c r="D78" s="34">
-        <v>52.5033867499723</v>
-      </c>
-      <c r="E78" s="35">
-        <v>65.312407085293501</v>
-      </c>
-      <c r="F78" s="34">
-        <v>70.977090247036699</v>
-      </c>
-      <c r="G78" s="34">
-        <v>20.541891681846401</v>
-      </c>
-      <c r="H78" s="34">
-        <v>3.55618805223774</v>
-      </c>
-      <c r="I78" s="34">
-        <v>61.765951491316002</v>
-      </c>
-      <c r="J78" s="35">
-        <v>14.135965343934201</v>
+      <c r="C78" s="35">
+        <v>63.253466666666696</v>
+      </c>
+      <c r="D78" s="35">
+        <v>55.900466666666702</v>
+      </c>
+      <c r="E78" s="36">
+        <v>70.486733333333405</v>
+      </c>
+      <c r="F78" s="35">
+        <v>61.651348859344502</v>
+      </c>
+      <c r="G78" s="35">
+        <v>24.948116295234499</v>
+      </c>
+      <c r="H78" s="35">
+        <v>3.2801398015830299</v>
+      </c>
+      <c r="I78" s="35">
+        <v>56.816011887244201</v>
+      </c>
+      <c r="J78" s="36">
+        <v>14.9557326999686</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A79" s="27" t="s">
+      <c r="A79" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B79" s="31" t="s">
+      <c r="B79" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="C79" s="32">
-        <v>56.900317391355401</v>
-      </c>
-      <c r="D79" s="32">
-        <v>39.333468887045797</v>
-      </c>
-      <c r="E79" s="30">
-        <v>73.403099216133199</v>
-      </c>
-      <c r="F79" s="32">
-        <v>24.320950210465298</v>
-      </c>
-      <c r="G79" s="32">
-        <v>83.989746834796506</v>
-      </c>
-      <c r="H79" s="32">
-        <v>1.9973798808465399</v>
-      </c>
-      <c r="I79" s="32">
-        <v>12.1411467100606</v>
-      </c>
-      <c r="J79" s="30">
-        <v>1.8717258250759199</v>
+      <c r="C79" s="33">
+        <v>61.717043478260898</v>
+      </c>
+      <c r="D79" s="33">
+        <v>45.050869565217397</v>
+      </c>
+      <c r="E79" s="31">
+        <v>74.8788695652174</v>
+      </c>
+      <c r="F79" s="33">
+        <v>27.2417232515017</v>
+      </c>
+      <c r="G79" s="33">
+        <v>75.905793270911701</v>
+      </c>
+      <c r="H79" s="33">
+        <v>2.5656225012090799</v>
+      </c>
+      <c r="I79" s="33">
+        <v>17.511293634131</v>
+      </c>
+      <c r="J79" s="31">
+        <v>4.01729059374816</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A80" s="27" t="s">
+      <c r="A80" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B80" s="31" t="s">
+      <c r="B80" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="C80" s="32">
-        <v>66.316379825923093</v>
-      </c>
-      <c r="D80" s="32">
-        <v>56.8243220928589</v>
-      </c>
-      <c r="E80" s="30">
-        <v>76.018708498256402</v>
-      </c>
-      <c r="F80" s="32">
-        <v>62.473978936844802</v>
-      </c>
-      <c r="G80" s="32">
-        <v>32.760673965869501</v>
-      </c>
-      <c r="H80" s="32">
-        <v>3.2309563348774302</v>
-      </c>
-      <c r="I80" s="32">
-        <v>40.211824130603503</v>
-      </c>
-      <c r="J80" s="30">
-        <v>23.796543807785898</v>
+      <c r="C80" s="33">
+        <v>65.2858421052632</v>
+      </c>
+      <c r="D80" s="33">
+        <v>57.255763157894798</v>
+      </c>
+      <c r="E80" s="31">
+        <v>73.544921052631594</v>
+      </c>
+      <c r="F80" s="33">
+        <v>63.432724996667098</v>
+      </c>
+      <c r="G80" s="33">
+        <v>30.954009062684801</v>
+      </c>
+      <c r="H80" s="33">
+        <v>2.76388844246287</v>
+      </c>
+      <c r="I80" s="33">
+        <v>44.453154054669199</v>
+      </c>
+      <c r="J80" s="31">
+        <v>21.828948440183201</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="27" t="s">
+      <c r="A81" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B81" s="31" t="s">
+      <c r="B81" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="C81" s="29">
-        <v>60.320516206355499</v>
-      </c>
-      <c r="D81" s="29">
-        <v>45.419129501929703</v>
-      </c>
-      <c r="E81" s="30">
-        <v>74.817662410735807</v>
-      </c>
-      <c r="F81" s="29">
-        <v>44.499046585898597</v>
-      </c>
-      <c r="G81" s="29">
-        <v>44.899008671386703</v>
-      </c>
-      <c r="H81" s="29">
-        <v>1.76011043284049</v>
-      </c>
-      <c r="I81" s="29">
-        <v>41.003384433928403</v>
-      </c>
-      <c r="J81" s="30">
-        <v>12.3374979827879</v>
+      <c r="C81" s="30">
+        <v>61.763843137254902</v>
+      </c>
+      <c r="D81" s="30">
+        <v>51.513098039215699</v>
+      </c>
+      <c r="E81" s="31">
+        <v>72.059401960784299</v>
+      </c>
+      <c r="F81" s="30">
+        <v>28.3911180076189</v>
+      </c>
+      <c r="G81" s="30">
+        <v>54.942315698376802</v>
+      </c>
+      <c r="H81" s="30">
+        <v>2.5593875952527201</v>
+      </c>
+      <c r="I81" s="30">
+        <v>32.493731490323199</v>
+      </c>
+      <c r="J81" s="31">
+        <v>10.0045648341077</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A82" s="27" t="s">
+      <c r="A82" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B82" s="33" t="s">
+      <c r="B82" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="C82" s="34">
-        <v>70.4936496382619</v>
-      </c>
-      <c r="D82" s="34">
-        <v>64.344583875469695</v>
-      </c>
-      <c r="E82" s="35">
-        <v>76.791657028557495</v>
-      </c>
-      <c r="F82" s="34">
-        <v>80.142585676147803</v>
-      </c>
-      <c r="G82" s="34">
-        <v>16.4489659737322</v>
-      </c>
-      <c r="H82" s="34">
-        <v>1.4486227822587301</v>
-      </c>
-      <c r="I82" s="34">
-        <v>51.935695188596299</v>
-      </c>
-      <c r="J82" s="35">
-        <v>30.1667185378688</v>
+      <c r="C82" s="35">
+        <v>70.450086956521801</v>
+      </c>
+      <c r="D82" s="35">
+        <v>64.605739130434799</v>
+      </c>
+      <c r="E82" s="36">
+        <v>76.460695652173897</v>
+      </c>
+      <c r="F82" s="35">
+        <v>81.158181675395895</v>
+      </c>
+      <c r="G82" s="35">
+        <v>17.176322165334</v>
+      </c>
+      <c r="H82" s="35">
+        <v>1.7221567203674899</v>
+      </c>
+      <c r="I82" s="35">
+        <v>53.180330630795098</v>
+      </c>
+      <c r="J82" s="36">
+        <v>27.921194860831701</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A83" s="27" t="s">
+      <c r="A83" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B83" s="31" t="s">
+      <c r="B83" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="C83" s="32">
-        <v>53.111191634307801</v>
-      </c>
-      <c r="D83" s="32">
-        <v>31.501288873306802</v>
-      </c>
-      <c r="E83" s="30">
-        <v>74.447026873870698</v>
-      </c>
-      <c r="F83" s="32">
-        <v>64.157285052707607</v>
-      </c>
-      <c r="G83" s="32">
-        <v>24.032834809057601</v>
-      </c>
-      <c r="H83" s="32">
-        <v>3.0721450550182698</v>
-      </c>
-      <c r="I83" s="32">
-        <v>42.678562159798801</v>
-      </c>
-      <c r="J83" s="30">
-        <v>30.216460318372999</v>
+      <c r="C83" s="33">
+        <v>53.4301666666667</v>
+      </c>
+      <c r="D83" s="33">
+        <v>34.7456666666667</v>
+      </c>
+      <c r="E83" s="31">
+        <v>72.060333333333404</v>
+      </c>
+      <c r="F83" s="33">
+        <v>59.936386945885701</v>
+      </c>
+      <c r="G83" s="33">
+        <v>26.988437243518501</v>
+      </c>
+      <c r="H83" s="33">
+        <v>2.9007820367184798</v>
+      </c>
+      <c r="I83" s="33">
+        <v>40.571082020737698</v>
+      </c>
+      <c r="J83" s="31">
+        <v>29.539701037784798</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A84" s="27" t="s">
+      <c r="A84" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B84" s="31" t="s">
+      <c r="B84" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="C84" s="32">
-        <v>59.189669201157898</v>
-      </c>
-      <c r="D84" s="32">
-        <v>48.9442901434508</v>
-      </c>
-      <c r="E84" s="30">
-        <v>69.521979325608498</v>
-      </c>
-      <c r="F84" s="32">
-        <v>59.860725817221301</v>
-      </c>
-      <c r="G84" s="32">
-        <v>30.0647145899019</v>
-      </c>
-      <c r="H84" s="32">
-        <v>4.4394443676749802</v>
-      </c>
-      <c r="I84" s="32">
-        <v>51.874943941413498</v>
-      </c>
-      <c r="J84" s="30">
-        <v>13.6208916716724</v>
+      <c r="C84" s="33">
+        <v>60.873043478260897</v>
+      </c>
+      <c r="D84" s="33">
+        <v>51.296478260869598</v>
+      </c>
+      <c r="E84" s="31">
+        <v>70.618826086956503</v>
+      </c>
+      <c r="F84" s="33">
+        <v>55.247660359850897</v>
+      </c>
+      <c r="G84" s="33">
+        <v>34.620038971466201</v>
+      </c>
+      <c r="H84" s="33">
+        <v>3.8370459485568</v>
+      </c>
+      <c r="I84" s="33">
+        <v>47.590378750274397</v>
+      </c>
+      <c r="J84" s="31">
+        <v>13.9525319528237</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A85" s="27" t="s">
+      <c r="A85" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B85" s="31" t="s">
+      <c r="B85" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="C85" s="32">
-        <v>53.8592573355862</v>
-      </c>
-      <c r="D85" s="32">
-        <v>29.3744443476985</v>
-      </c>
-      <c r="E85" s="30">
-        <v>77.082411642923901</v>
-      </c>
-      <c r="F85" s="32">
-        <v>65.013115246688798</v>
-      </c>
-      <c r="G85" s="32">
-        <v>24.9993248299381</v>
-      </c>
-      <c r="H85" s="32">
-        <v>2.0515162000712799</v>
-      </c>
-      <c r="I85" s="32">
-        <v>60.677638197924701</v>
-      </c>
-      <c r="J85" s="30">
-        <v>12.2715202166733</v>
+      <c r="C85" s="33">
+        <v>64.206000000000003</v>
+      </c>
+      <c r="D85" s="33">
+        <v>53.092916666666703</v>
+      </c>
+      <c r="E85" s="31">
+        <v>75.633916666666707</v>
+      </c>
+      <c r="F85" s="33">
+        <v>53.660725521946503</v>
+      </c>
+      <c r="G85" s="33">
+        <v>33.752717194452401</v>
+      </c>
+      <c r="H85" s="33">
+        <v>2.2717076530582698</v>
+      </c>
+      <c r="I85" s="33">
+        <v>50.89892177782</v>
+      </c>
+      <c r="J85" s="31">
+        <v>13.076652405017001</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A86" s="27" t="s">
+      <c r="A86" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B86" s="31" t="s">
+      <c r="B86" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="C86" s="32">
-        <v>56.0339992294452</v>
-      </c>
-      <c r="D86" s="32">
-        <v>48.797156226382597</v>
-      </c>
-      <c r="E86" s="30">
-        <v>63.499410905346998</v>
-      </c>
-      <c r="F86" s="32">
-        <v>12.9249190426823</v>
-      </c>
-      <c r="G86" s="32">
-        <v>84.427796590437197</v>
-      </c>
-      <c r="H86" s="32">
-        <v>5.1929099461427297</v>
-      </c>
-      <c r="I86" s="32">
-        <v>9.8469916053834901</v>
-      </c>
-      <c r="J86" s="30">
-        <v>0.53229704164859004</v>
+      <c r="C86" s="33">
+        <v>58.486499999999999</v>
+      </c>
+      <c r="D86" s="33">
+        <v>50.554000000000002</v>
+      </c>
+      <c r="E86" s="31">
+        <v>66.198999999999998</v>
+      </c>
+      <c r="F86" s="33">
+        <v>30.284737810955399</v>
+      </c>
+      <c r="G86" s="33">
+        <v>81.834000447155702</v>
+      </c>
+      <c r="H86" s="33">
+        <v>4.7996932775654502</v>
+      </c>
+      <c r="I86" s="33">
+        <v>12.393749741078</v>
+      </c>
+      <c r="J86" s="31">
+        <v>0.97256587524227001</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A87" s="27" t="s">
+      <c r="A87" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B87" s="31" t="s">
+      <c r="B87" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="C87" s="32">
-        <v>64.947380805377406</v>
-      </c>
-      <c r="D87" s="32">
-        <v>54.407968428707299</v>
-      </c>
-      <c r="E87" s="30">
-        <v>75.620428622725697</v>
-      </c>
-      <c r="F87" s="32">
-        <v>38.889117250588299</v>
-      </c>
-      <c r="G87" s="32">
-        <v>53.840143700043001</v>
-      </c>
-      <c r="H87" s="32">
-        <v>1.5358007331521999</v>
-      </c>
-      <c r="I87" s="32">
-        <v>31.634692830791501</v>
-      </c>
-      <c r="J87" s="30">
-        <v>12.989366020140199</v>
+      <c r="C87" s="33">
+        <v>60.049272727272701</v>
+      </c>
+      <c r="D87" s="33">
+        <v>46.970727272727302</v>
+      </c>
+      <c r="E87" s="31">
+        <v>73.183499999999995</v>
+      </c>
+      <c r="F87" s="33">
+        <v>30.333863839580399</v>
+      </c>
+      <c r="G87" s="33">
+        <v>57.855025350748903</v>
+      </c>
+      <c r="H87" s="33">
+        <v>2.3882060206572402</v>
+      </c>
+      <c r="I87" s="33">
+        <v>29.258997667373301</v>
+      </c>
+      <c r="J87" s="31">
+        <v>10.497772052159901</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="27" t="s">
+      <c r="A88" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B88" s="31" t="s">
+      <c r="B88" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="C88" s="29">
-        <v>60.722772588397198</v>
-      </c>
-      <c r="D88" s="29">
-        <v>52.892148187119801</v>
-      </c>
-      <c r="E88" s="30">
-        <v>68.178230646336203</v>
-      </c>
-      <c r="F88" s="29">
-        <v>9.1150411496064496</v>
-      </c>
-      <c r="G88" s="29">
-        <v>91.589586170452506</v>
-      </c>
-      <c r="H88" s="29">
-        <v>2.6757254124523899</v>
-      </c>
-      <c r="I88" s="29">
-        <v>5.26819232897018</v>
-      </c>
-      <c r="J88" s="30">
-        <v>0.46648825356858997</v>
+      <c r="C88" s="30">
+        <v>62.962000000000003</v>
+      </c>
+      <c r="D88" s="30">
+        <v>53.581557692307697</v>
+      </c>
+      <c r="E88" s="31">
+        <v>70.703999999999994</v>
+      </c>
+      <c r="F88" s="30">
+        <v>10.701133028946201</v>
+      </c>
+      <c r="G88" s="30">
+        <v>87.675646570492106</v>
+      </c>
+      <c r="H88" s="30">
+        <v>3.3557917654731999</v>
+      </c>
+      <c r="I88" s="30">
+        <v>8.0670942357506998</v>
+      </c>
+      <c r="J88" s="31">
+        <v>0.90146431446007003</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A89" s="27" t="s">
+      <c r="A89" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B89" s="33" t="s">
+      <c r="B89" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="C89" s="34">
-        <v>71.216124990308302</v>
-      </c>
-      <c r="D89" s="34">
-        <v>65.413790154340603</v>
-      </c>
-      <c r="E89" s="35">
-        <v>77.181190990542703</v>
-      </c>
-      <c r="F89" s="34">
-        <v>78.947570646073999</v>
-      </c>
-      <c r="G89" s="34">
-        <v>16.738242832495899</v>
-      </c>
-      <c r="H89" s="34">
-        <v>1.66893642808958</v>
-      </c>
-      <c r="I89" s="34">
-        <v>51.845630575861399</v>
-      </c>
-      <c r="J89" s="35">
-        <v>29.7471921556537</v>
+      <c r="C89" s="35">
+        <v>68.106212121212096</v>
+      </c>
+      <c r="D89" s="35">
+        <v>61.6236363636364</v>
+      </c>
+      <c r="E89" s="36">
+        <v>74.742999999999995</v>
+      </c>
+      <c r="F89" s="35">
+        <v>74.885861672716999</v>
+      </c>
+      <c r="G89" s="35">
+        <v>18.129242997008799</v>
+      </c>
+      <c r="H89" s="35">
+        <v>1.8955404591595799</v>
+      </c>
+      <c r="I89" s="35">
+        <v>52.842172760822599</v>
+      </c>
+      <c r="J89" s="36">
+        <v>27.1330464519638</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A90" s="27" t="s">
+      <c r="A90" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B90" s="31" t="s">
+      <c r="B90" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="C90" s="32">
-        <v>60.448810445450299</v>
-      </c>
-      <c r="D90" s="32">
-        <v>41.450343980541099</v>
-      </c>
-      <c r="E90" s="30">
-        <v>79.407752518367701</v>
-      </c>
-      <c r="F90" s="32">
-        <v>60.513575666319397</v>
-      </c>
-      <c r="G90" s="32">
-        <v>38.9175587359194</v>
-      </c>
-      <c r="H90" s="32">
-        <v>4.0517701975625799</v>
-      </c>
-      <c r="I90" s="32">
-        <v>43.366912537285003</v>
-      </c>
-      <c r="J90" s="30">
-        <v>13.6637524355368</v>
+      <c r="C90" s="33">
+        <v>67.2574166666667</v>
+      </c>
+      <c r="D90" s="33">
+        <v>56.058750000000003</v>
+      </c>
+      <c r="E90" s="31">
+        <v>78.420749999999998</v>
+      </c>
+      <c r="F90" s="33">
+        <v>66.325737063289594</v>
+      </c>
+      <c r="G90" s="33">
+        <v>35.933050764294599</v>
+      </c>
+      <c r="H90" s="33">
+        <v>3.22802093625404</v>
+      </c>
+      <c r="I90" s="33">
+        <v>42.767694925293398</v>
+      </c>
+      <c r="J90" s="31">
+        <v>18.071229154925302</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A91" s="27" t="s">
+      <c r="A91" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B91" s="31" t="s">
+      <c r="B91" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C91" s="32">
-        <v>61.329173271524901</v>
-      </c>
-      <c r="D91" s="32">
-        <v>52.670565970562201</v>
-      </c>
-      <c r="E91" s="30">
-        <v>70.347737096434003</v>
-      </c>
-      <c r="F91" s="32">
-        <v>51.996491384732501</v>
-      </c>
-      <c r="G91" s="32">
-        <v>41.579833318953199</v>
-      </c>
-      <c r="H91" s="32">
-        <v>2.59066009285795</v>
-      </c>
-      <c r="I91" s="32">
-        <v>39.890420086347902</v>
-      </c>
-      <c r="J91" s="30">
-        <v>15.939078016451401</v>
+      <c r="C91" s="33">
+        <v>58.360399999999998</v>
+      </c>
+      <c r="D91" s="33">
+        <v>48.466000000000001</v>
+      </c>
+      <c r="E91" s="31">
+        <v>68.501400000000004</v>
+      </c>
+      <c r="F91" s="33">
+        <v>47.7804730681599</v>
+      </c>
+      <c r="G91" s="33">
+        <v>46.766472803852999</v>
+      </c>
+      <c r="H91" s="33">
+        <v>2.9872150722983801</v>
+      </c>
+      <c r="I91" s="33">
+        <v>36.791539581443601</v>
+      </c>
+      <c r="J91" s="31">
+        <v>13.4547180967543</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A92" s="27" t="s">
+      <c r="A92" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B92" s="31" t="s">
+      <c r="B92" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="C92" s="32">
-        <v>61.224204162982701</v>
-      </c>
-      <c r="D92" s="32">
-        <v>52.047250750811301</v>
-      </c>
-      <c r="E92" s="30">
-        <v>69.986426699948893</v>
-      </c>
-      <c r="F92" s="32">
-        <v>43.7394073420434</v>
-      </c>
-      <c r="G92" s="32">
-        <v>53.341511310403597</v>
-      </c>
-      <c r="H92" s="32">
-        <v>2.6822292461552699</v>
-      </c>
-      <c r="I92" s="32">
-        <v>33.800033109550398</v>
-      </c>
-      <c r="J92" s="30">
-        <v>10.1762196281672</v>
+      <c r="C92" s="33">
+        <v>63.600636363636397</v>
+      </c>
+      <c r="D92" s="33">
+        <v>52.511590909090899</v>
+      </c>
+      <c r="E92" s="31">
+        <v>73.464954545454603</v>
+      </c>
+      <c r="F92" s="33">
+        <v>35.1648867279212</v>
+      </c>
+      <c r="G92" s="33">
+        <v>57.375830259589698</v>
+      </c>
+      <c r="H92" s="33">
+        <v>2.7998924021113001</v>
+      </c>
+      <c r="I92" s="33">
+        <v>30.184233440395499</v>
+      </c>
+      <c r="J92" s="31">
+        <v>9.6400361892139497</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A93" s="27" t="s">
+      <c r="A93" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B93" s="31" t="s">
+      <c r="B93" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="C93" s="32">
-        <v>75.350644638954904</v>
-      </c>
-      <c r="D93" s="32">
-        <v>69.774152515245802</v>
-      </c>
-      <c r="E93" s="30">
-        <v>81.115278738107193</v>
-      </c>
-      <c r="F93" s="32">
-        <v>80.903544505271896</v>
-      </c>
-      <c r="G93" s="32">
-        <v>15.0537791238401</v>
-      </c>
-      <c r="H93" s="32">
-        <v>0.82455590147847002</v>
-      </c>
-      <c r="I93" s="32">
-        <v>49.706985888883203</v>
-      </c>
-      <c r="J93" s="30">
-        <v>34.414682411192999</v>
+      <c r="C93" s="33">
+        <v>72.666375000000002</v>
+      </c>
+      <c r="D93" s="33">
+        <v>67.463750000000005</v>
+      </c>
+      <c r="E93" s="31">
+        <v>78.119375000000005</v>
+      </c>
+      <c r="F93" s="33">
+        <v>70.690566936889198</v>
+      </c>
+      <c r="G93" s="33">
+        <v>18.083076901904601</v>
+      </c>
+      <c r="H93" s="33">
+        <v>0.95768646378925004</v>
+      </c>
+      <c r="I93" s="33">
+        <v>51.403508513520499</v>
+      </c>
+      <c r="J93" s="31">
+        <v>29.555734716008601</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="27" t="s">
+      <c r="A94" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B94" s="31" t="s">
+      <c r="B94" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="C94" s="29">
-        <v>64.118896203004994</v>
-      </c>
-      <c r="D94" s="29">
-        <v>52.493501449532097</v>
-      </c>
-      <c r="E94" s="30">
-        <v>75.703724185252497</v>
-      </c>
-      <c r="F94" s="29">
-        <v>55.5502228906075</v>
-      </c>
-      <c r="G94" s="29">
-        <v>38.050387654719103</v>
-      </c>
-      <c r="H94" s="29">
-        <v>2.06152676244358</v>
-      </c>
-      <c r="I94" s="29">
-        <v>38.527850976238597</v>
-      </c>
-      <c r="J94" s="30">
-        <v>21.360232596735901</v>
+      <c r="C94" s="30">
+        <v>62.620312499999997</v>
+      </c>
+      <c r="D94" s="30">
+        <v>53.260937499999997</v>
+      </c>
+      <c r="E94" s="31">
+        <v>72.150062500000004</v>
+      </c>
+      <c r="F94" s="30">
+        <v>48.4395654848731</v>
+      </c>
+      <c r="G94" s="30">
+        <v>42.252664182940499</v>
+      </c>
+      <c r="H94" s="30">
+        <v>2.5608481496733799</v>
+      </c>
+      <c r="I94" s="30">
+        <v>35.880905683017602</v>
+      </c>
+      <c r="J94" s="31">
+        <v>19.305581984368501</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A95" s="27" t="s">
+      <c r="A95" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B95" s="33" t="s">
+      <c r="B95" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="C95" s="34">
-        <v>69.037155107706397</v>
-      </c>
-      <c r="D95" s="34">
-        <v>64.093709138074999</v>
-      </c>
-      <c r="E95" s="35">
-        <v>74.044452871078093</v>
-      </c>
-      <c r="F95" s="34">
-        <v>76.752692636942101</v>
-      </c>
-      <c r="G95" s="34">
-        <v>18.777410973449399</v>
-      </c>
-      <c r="H95" s="34">
-        <v>2.55909923657702</v>
-      </c>
-      <c r="I95" s="34">
-        <v>56.803055097110203</v>
-      </c>
-      <c r="J95" s="35">
-        <v>21.860432933573801</v>
+      <c r="C95" s="35">
+        <v>67.833931034482802</v>
+      </c>
+      <c r="D95" s="35">
+        <v>61.898034482758597</v>
+      </c>
+      <c r="E95" s="36">
+        <v>73.798689655172396</v>
+      </c>
+      <c r="F95" s="35">
+        <v>69.533352995257104</v>
+      </c>
+      <c r="G95" s="35">
+        <v>20.817479698291699</v>
+      </c>
+      <c r="H95" s="35">
+        <v>2.1390387315976498</v>
+      </c>
+      <c r="I95" s="35">
+        <v>54.137212378369803</v>
+      </c>
+      <c r="J95" s="36">
+        <v>22.9062709310587</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A96" s="27" t="s">
+      <c r="A96" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B96" s="31" t="s">
+      <c r="B96" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="C96" s="32">
-        <v>56.8565252972192</v>
-      </c>
-      <c r="D96" s="32">
-        <v>33.932296703698498</v>
-      </c>
-      <c r="E96" s="30">
-        <v>79.414348441061406</v>
-      </c>
-      <c r="F96" s="32">
-        <v>53.737578521253901</v>
-      </c>
-      <c r="G96" s="32">
-        <v>42.530311753278298</v>
-      </c>
-      <c r="H96" s="32">
-        <v>2.7261658702996199</v>
-      </c>
-      <c r="I96" s="32">
-        <v>38.834488001978798</v>
-      </c>
-      <c r="J96" s="30">
-        <v>15.909030495958699</v>
+      <c r="C96" s="33">
+        <v>63.525571428571403</v>
+      </c>
+      <c r="D96" s="33">
+        <v>49.7437857142857</v>
+      </c>
+      <c r="E96" s="31">
+        <v>77.615642857142902</v>
+      </c>
+      <c r="F96" s="33">
+        <v>55.009231061577402</v>
+      </c>
+      <c r="G96" s="33">
+        <v>42.189303796142802</v>
+      </c>
+      <c r="H96" s="33">
+        <v>2.8747961546356402</v>
+      </c>
+      <c r="I96" s="33">
+        <v>38.316987715832198</v>
+      </c>
+      <c r="J96" s="31">
+        <v>16.6189094944022</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="27" t="s">
+      <c r="A97" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B97" s="36" t="s">
+      <c r="B97" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="C97" s="37">
-        <v>54.899444267325698</v>
-      </c>
-      <c r="D97" s="37">
-        <v>38.4867990004104</v>
-      </c>
-      <c r="E97" s="38">
-        <v>71.252194774195701</v>
-      </c>
-      <c r="F97" s="37">
-        <v>64.780759654213497</v>
-      </c>
-      <c r="G97" s="37">
-        <v>27.555235369476801</v>
-      </c>
-      <c r="H97" s="37">
-        <v>2.6795888505207799</v>
-      </c>
-      <c r="I97" s="37">
-        <v>51.734801209784997</v>
-      </c>
-      <c r="J97" s="38">
-        <v>18.0303761408599</v>
+      <c r="C97" s="38">
+        <v>58.7790769230769</v>
+      </c>
+      <c r="D97" s="38">
+        <v>44.173615384615402</v>
+      </c>
+      <c r="E97" s="39">
+        <v>73.417307692307702</v>
+      </c>
+      <c r="F97" s="38">
+        <v>69.767864234831904</v>
+      </c>
+      <c r="G97" s="38">
+        <v>29.1620519102839</v>
+      </c>
+      <c r="H97" s="38">
+        <v>2.7054107973043302</v>
+      </c>
+      <c r="I97" s="38">
+        <v>48.774674392283998</v>
+      </c>
+      <c r="J97" s="39">
+        <v>19.357863956226701</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A98" s="39"/>
-      <c r="B98" s="40"/>
-      <c r="C98" s="29"/>
-      <c r="D98" s="29"/>
-      <c r="E98" s="29"/>
-      <c r="F98" s="29"/>
-      <c r="G98" s="29"/>
-      <c r="H98" s="29"/>
-      <c r="I98" s="29"/>
-      <c r="J98" s="29"/>
+      <c r="A98" s="40"/>
+      <c r="B98" s="41"/>
+      <c r="C98" s="30"/>
+      <c r="D98" s="30"/>
+      <c r="E98" s="30"/>
+      <c r="F98" s="30"/>
+      <c r="G98" s="30"/>
+      <c r="H98" s="30"/>
+      <c r="I98" s="30"/>
+      <c r="J98" s="30"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
+      <c r="A99" s="42" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
+      <c r="A100" s="42" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
+      <c r="A101" s="42" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
+      <c r="A102" s="42" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B105" s="43" t="s">
+      <c r="B105" s="45" t="s">
         <v>166</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B106" s="45"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B107" s="46" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B108" s="46" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B109" s="46" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B110" s="46" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B111" s="46" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B105" r:id="rId1" display="If you would like to explore these data further, look up the historic time series for these indicators, or produce interactive visualisations of these data, please visit the website http://oe.cd/afdd2020."/>
+    <hyperlink ref="B107" r:id="rId2"/>
+    <hyperlink ref="B108" r:id="rId3" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
+    <hyperlink ref="B109" r:id="rId4"/>
+    <hyperlink ref="B110" r:id="rId5"/>
+    <hyperlink ref="B111" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="50" fitToWidth="0" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="50" fitToWidth="0" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>